--- a/src/test/resources/Spicejet data.xlsx
+++ b/src/test/resources/Spicejet data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jenner\eclipse-workspace\SpiceJET\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C986C53D-0774-41AA-A7C5-345A54DDBFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE9BF3F-6B1F-4876-9EFD-B93AC873BC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8C98A62F-4DFA-4FFD-AFC1-3E4499D26EFD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{8C98A62F-4DFA-4FFD-AFC1-3E4499D26EFD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Signup" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Login" sheetId="2" r:id="rId1"/>
+    <sheet name="Signup" sheetId="3" r:id="rId2"/>
+    <sheet name="Oneway" sheetId="4" r:id="rId3"/>
+    <sheet name="Payment" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Firstname</t>
   </si>
@@ -60,19 +61,127 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Jenner</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Mailid</t>
+  </si>
+  <si>
+    <t>jennerarmstrong2002@gmail.com</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Phonenumber</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Jenner123@</t>
+  </si>
+  <si>
+    <t>Armstrong</t>
+  </si>
+  <si>
+    <t>8754645405</t>
+  </si>
+  <si>
+    <t>Jenner0987&amp;</t>
+  </si>
+  <si>
+    <t>06-05-2002</t>
+  </si>
+  <si>
+    <t>8754645403</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>kochi</t>
+  </si>
+  <si>
+    <t>Dubai,</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>Cardname</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Cvv</t>
+  </si>
+  <si>
+    <t>Miriam Villarreal</t>
+  </si>
+  <si>
+    <t>4149109693442520</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>421</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,14 +201,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,46 +539,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83496C41-148D-4966-AC10-50D44F3B3E73}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0862309-52FF-4FB4-B24E-E63378B29AB7}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{53773781-975E-4679-A9E4-ECC744207FF6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B81FCAA-67A2-4621-8D78-45D9EBD02BDC}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{E5480E62-BDC4-4208-A8EF-C4D054E6F4EA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C6D2CB-2289-44F3-A8A3-44023DBA9565}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -457,26 +700,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0862309-52FF-4FB4-B24E-E63378B29AB7}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2B3D2C-490E-464A-A0C3-EF9582FC6692}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B81FCAA-67A2-4621-8D78-45D9EBD02BDC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>